--- a/Team-Data/2008-09/2-2-2008-09.xlsx
+++ b/Team-Data/2008-09/2-2-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -765,10 +832,10 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -780,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -792,19 +859,19 @@
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -813,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
@@ -872,73 +939,73 @@
         <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
         <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.4</v>
       </c>
       <c r="P3" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,37 +1032,37 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>5</v>
       </c>
-      <c r="AT3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4</v>
-      </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
         <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,10 +1115,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>76</v>
+        <v>76.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1060,55 +1127,55 @@
         <v>15.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U4" t="n">
         <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1120,7 +1187,7 @@
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,22 +1205,22 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1162,13 +1229,13 @@
         <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.426</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,76 +1297,76 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
         <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1308,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1320,19 +1387,19 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1344,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.822</v>
+        <v>0.804</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
@@ -1490,19 +1557,19 @@
         <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1523,25 +1590,25 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1594,37 +1661,37 @@
         <v>37.9</v>
       </c>
       <c r="J7" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="N7" t="n">
         <v>0.342</v>
       </c>
       <c r="O7" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S7" t="n">
         <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U7" t="n">
         <v>21.3</v>
@@ -1636,28 +1703,28 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1705,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
@@ -1717,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1854,13 +1921,13 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2054,7 +2121,7 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2066,10 +2133,10 @@
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,13 +2151,13 @@
         <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.306</v>
+        <v>0.313</v>
       </c>
       <c r="H10" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
         <v>0.362</v>
       </c>
       <c r="O10" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
@@ -2176,31 +2243,31 @@
         <v>20.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
         <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC10" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2430,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2448,7 +2515,7 @@
         <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA11" t="n">
         <v>14</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2591,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
         <v>16</v>
@@ -2615,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
         <v>23</v>
@@ -2624,7 +2691,7 @@
         <v>22</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2695,10 +2762,10 @@
         <v>5.7</v>
       </c>
       <c r="M13" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
         <v>17.2</v>
@@ -2707,19 +2774,19 @@
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R13" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S13" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T13" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
         <v>15</v>
@@ -2728,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
@@ -2740,28 +2807,28 @@
         <v>19.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.4</v>
+        <v>-8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2776,40 +2843,40 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW13" t="n">
         <v>20</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -2865,49 +2932,49 @@
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
@@ -2916,37 +2983,37 @@
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" t="n">
-        <v>3</v>
-      </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2970,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>8</v>
@@ -2997,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.255</v>
+        <v>0.239</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="J15" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
         <v>13.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.336</v>
+        <v>0.332</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
         <v>10.1</v>
@@ -3083,16 +3150,16 @@
         <v>38.1</v>
       </c>
       <c r="U15" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5.2</v>
@@ -3101,16 +3168,16 @@
         <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>9</v>
@@ -3164,28 +3231,28 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY15" t="n">
         <v>17</v>
       </c>
-      <c r="AW15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
         <v>39.9</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
         <v>12.6</v>
@@ -3280,19 +3347,19 @@
         <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
         <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,16 +3371,16 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,16 +3389,16 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>9</v>
@@ -3364,10 +3431,10 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.48</v>
+        <v>0.471</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,43 +3481,43 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3504,13 +3571,13 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3525,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3537,10 +3604,10 @@
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3549,7 +3616,7 @@
         <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3865,19 +3932,19 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3895,13 +3962,13 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.622</v>
+        <v>0.636</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
@@ -3960,25 +4027,25 @@
         <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
         <v>19.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
         <v>0.8090000000000001</v>
@@ -3987,19 +4054,19 @@
         <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4014,34 +4081,34 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,22 +4117,22 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>4</v>
       </c>
-      <c r="AO20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AR20" t="n">
         <v>27</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>28</v>
-      </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>29</v>
@@ -4077,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -4124,52 +4191,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.447</v>
+        <v>0.457</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J21" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.441</v>
       </c>
       <c r="L21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
         <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T21" t="n">
         <v>42.6</v>
@@ -4187,22 +4254,22 @@
         <v>2.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4232,22 +4299,22 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AT21" t="n">
         <v>9</v>
@@ -4265,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>-6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>27</v>
@@ -4402,10 +4469,10 @@
         <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
@@ -4432,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4450,13 +4517,13 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.766</v>
+        <v>0.783</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4506,49 +4573,49 @@
         <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.397</v>
+        <v>0.401</v>
       </c>
       <c r="O23" t="n">
         <v>19.5</v>
       </c>
       <c r="P23" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W23" t="n">
         <v>7.2</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
@@ -4557,16 +4624,16 @@
         <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4796,19 +4863,19 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>15</v>
       </c>
       <c r="AV24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
@@ -4823,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J25" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.496</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P25" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="U25" t="n">
         <v>21.8</v>
@@ -4909,7 +4976,7 @@
         <v>16.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
@@ -4921,16 +4988,16 @@
         <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.5</v>
+        <v>104</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4963,19 +5030,19 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
         <v>15</v>
@@ -4993,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>11</v>
@@ -5002,10 +5069,10 @@
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -5037,52 +5104,52 @@
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.652</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="O26" t="n">
         <v>19.3</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="O26" t="n">
-        <v>19.5</v>
-      </c>
       <c r="P26" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5091,7 +5158,7 @@
         <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
@@ -5100,40 +5167,40 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,31 +5227,31 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
         <v>81.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L27" t="n">
         <v>6.4</v>
@@ -5249,28 +5316,28 @@
         <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R27" t="n">
         <v>10.4</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
@@ -5282,22 +5349,22 @@
         <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA27" t="n">
         <v>21.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>30</v>
@@ -5306,16 +5373,16 @@
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5324,31 +5391,31 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
       </c>
       <c r="AS27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV27" t="n">
         <v>26</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>25</v>
@@ -5357,16 +5424,16 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.702</v>
+        <v>0.696</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T28" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5461,22 +5528,22 @@
         <v>4.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,10 +5555,10 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5536,10 +5603,10 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5676,10 +5743,10 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5730,7 +5797,7 @@
         <v>18</v>
       </c>
       <c r="BB29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.551</v>
+        <v>0.542</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,37 +5847,37 @@
         <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L30" t="n">
         <v>4.6</v>
       </c>
       <c r="M30" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S30" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
         <v>24.7</v>
@@ -5819,40 +5886,40 @@
         <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,13 +5955,13 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
         <v>81.5</v>
@@ -5977,40 +6044,40 @@
         <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P31" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
         <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="U31" t="n">
         <v>20.4</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>4</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA31" t="n">
         <v>19.3</v>
@@ -6019,31 +6086,31 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.2</v>
+        <v>-7</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,16 +6128,16 @@
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
         <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
@@ -6079,16 +6146,16 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6097,7 +6164,7 @@
         <v>26</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-2-2008-09</t>
+          <t>2009-02-02</t>
         </is>
       </c>
     </row>
